--- a/Энциклопедия/Chicken C#.xlsx
+++ b/Энциклопедия/Chicken C#.xlsx
@@ -36,9 +36,6 @@
     <t>Буфер свечей</t>
   </si>
   <si>
-    <t>Хранит установленное кол-во свечей (не самостоятельно, свечи надо добавлять), так же позволяет узнать максимум (индекс и цену) и минимум (индекс и цену), сообщает о получении "большой" свечи, нового максимума/минимума</t>
-  </si>
-  <si>
     <t>Хранилище экстремумов</t>
   </si>
   <si>
@@ -247,13 +244,28 @@
   </si>
   <si>
     <t>Хранит коэффициенты по тайм-фреймам для ExtremumStorage и MoveDispatcher</t>
+  </si>
+  <si>
+    <r>
+      <t>Хранит установленное кол-во свечей (не самостоятельно, свечи надо добавлять</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), так же позволяет узнать максимум (индекс и цену) и минимум (индекс и цену), сообщает о получении "большой" свечи, нового максимума/минимума</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,13 +291,44 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,29 +343,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -606,7 +688,7 @@
   <dimension ref="C2:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -621,336 +703,336 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="5.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:6" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="3:6" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="12" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
+      <c r="F13" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="4.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>33</v>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="4.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="3:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="4.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="4.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="3" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="5.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="9" t="s">
+    <row r="38" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="6" t="s">
+    <row r="41" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="6" t="s">
+    <row r="43" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
+    <row r="49" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="9" t="s">
+    <row r="54" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
